--- a/tests/src/testData.xlsx
+++ b/tests/src/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automationAcamica\automationtests\tests\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04765722-D000-435C-A993-0DB9D6D0814E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1057FFA3-4173-4FEA-991C-7FC9BB732BDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -99,7 +99,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,11 +461,11 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">NOW()+60</f>
-        <v>43778.896276504631</v>
+        <v>43779.38888622685</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">NOW()+70</f>
-        <v>43788.896276504631</v>
+        <v>43789.38888622685</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
